--- a/target/test-classes/testdata/RegisterTest.xlsx
+++ b/target/test-classes/testdata/RegisterTest.xlsx
@@ -160,7 +160,7 @@
     <t>Charities</t>
   </si>
   <si>
-    <t>111111121A</t>
+    <t>111123451A</t>
   </si>
   <si>
     <t>Retail Goods</t>
@@ -193,7 +193,7 @@
     <t>Passport</t>
   </si>
   <si>
-    <t>E:\\MINH TAI\Coding Projects\Aspire Auto\Aspire Automated\src\test\resources\testdata\RegisterTest.jpg</t>
+    <t>\src\test\resources\testdata\RegisterTest.jpg</t>
   </si>
   <si>
     <t>Tai B</t>

--- a/target/test-classes/testdata/RegisterTest.xlsx
+++ b/target/test-classes/testdata/RegisterTest.xlsx
@@ -160,7 +160,7 @@
     <t>Charities</t>
   </si>
   <si>
-    <t>111123451A</t>
+    <t>113523451A</t>
   </si>
   <si>
     <t>Retail Goods</t>
